--- a/data/trans_camb/IP08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 9,91</t>
+          <t>-6,21; 10,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,84; -0,36</t>
+          <t>-14,66; -1,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 15,66</t>
+          <t>-4,82; 14,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 12,93</t>
+          <t>-2,46; 12,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 6,6</t>
+          <t>-8,46; 6,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 20,2</t>
+          <t>-5,56; 17,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 8,88</t>
+          <t>-2,01; 9,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,15</t>
+          <t>-9,85; 0,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 13,04</t>
+          <t>-2,25; 12,9</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 119,2</t>
+          <t>-41,6; 138,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-90,54; 9,04</t>
+          <t>-92,38; -2,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 192,25</t>
+          <t>-36,31; 188,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 253,39</t>
+          <t>-24,31; 223,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,7; 128,12</t>
+          <t>-71,84; 140,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,68; 373,11</t>
+          <t>-61,75; 359,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 116,63</t>
+          <t>-17,01; 121,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,02; 12,33</t>
+          <t>-74,5; 7,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 165,67</t>
+          <t>-18,96; 157,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,62</t>
+          <t>-0,41; 6,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -0,13</t>
+          <t>-6,37; 0,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,34</t>
+          <t>-2,64; 5,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,1</t>
+          <t>1,61; 8,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,06</t>
+          <t>-3,66; 2,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 4,22</t>
+          <t>-1,96; 3,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,09</t>
+          <t>1,45; 6,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; -0,07</t>
+          <t>-4,23; -0,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,49</t>
+          <t>-1,6; 3,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 68,64</t>
+          <t>-4,0; 67,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,38; -1,14</t>
+          <t>-49,48; 1,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 55,16</t>
+          <t>-21,24; 56,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,63; 142,56</t>
+          <t>18,23; 143,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 34,92</t>
+          <t>-40,52; 35,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 69,13</t>
+          <t>-22,38; 67,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,76; 72,99</t>
+          <t>13,41; 75,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,65; -0,31</t>
+          <t>-39,95; 0,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 40,75</t>
+          <t>-15,8; 43,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 5,12</t>
+          <t>-6,41; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -2,28</t>
+          <t>-12,31; -2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 5,86</t>
+          <t>-7,07; 5,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 4,29</t>
+          <t>-6,07; 3,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 1,13</t>
+          <t>-8,09; 1,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,51</t>
+          <t>-4,53; 6,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,12</t>
+          <t>-4,63; 3,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -2,08</t>
+          <t>-8,56; -1,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,68</t>
+          <t>-4,17; 4,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 53,17</t>
+          <t>-43,51; 61,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,34; -21,62</t>
+          <t>-76,88; -21,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 61,11</t>
+          <t>-46,6; 58,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 55,89</t>
+          <t>-47,54; 54,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,68; 20,33</t>
+          <t>-62,99; 18,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 86,69</t>
+          <t>-34,74; 87,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 33,38</t>
+          <t>-35,39; 36,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,8; -18,89</t>
+          <t>-63,87; -17,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 49,75</t>
+          <t>-31,36; 48,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,7</t>
+          <t>-0,72; 4,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -2,12</t>
+          <t>-6,96; -2,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,43</t>
+          <t>-2,21; 4,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,97</t>
+          <t>0,56; 6,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,77</t>
+          <t>-3,92; 0,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,92</t>
+          <t>-1,62; 3,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,81</t>
+          <t>0,69; 4,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -1,23</t>
+          <t>-4,73; -1,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,39</t>
+          <t>-0,81; 3,23</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 46,16</t>
+          <t>-5,83; 47,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,55; -20,58</t>
+          <t>-54,28; -21,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 43,11</t>
+          <t>-17,6; 40,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,81; 83,64</t>
+          <t>5,48; 86,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 10,7</t>
+          <t>-41,7; 12,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 54,24</t>
+          <t>-17,33; 51,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,35; 52,02</t>
+          <t>6,21; 52,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,3; -13,87</t>
+          <t>-43,87; -15,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 36,33</t>
+          <t>-7,77; 35,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,16</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 12,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 6,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 36,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 8,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,3; -1,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 15,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 9,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,67; 0,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 21,79</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,94%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,52; 254,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,8; 124,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,4; 659,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,05; 106,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,86; -0,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,18; 184,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 114,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,33; 9,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 269,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 10,45</t>
+          <t>1,49; 8,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -1,68</t>
+          <t>-3,52; 1,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 14,97</t>
+          <t>-2,19; 3,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 12,32</t>
+          <t>-0,34; 6,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 6,84</t>
+          <t>-6,42; -0,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 17,5</t>
+          <t>-2,24; 7,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 9,15</t>
+          <t>1,55; 6,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 0,19</t>
+          <t>-4,15; -0,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 12,9</t>
+          <t>-1,43; 4,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-66,15%</t>
+          <t>-8,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>-29,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-44,86%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>12,78%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 138,85</t>
+          <t>17,48; 142,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-92,38; -2,91</t>
+          <t>-39,64; 33,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 188,29</t>
+          <t>-25,95; 70,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 223,77</t>
+          <t>-3,12; 67,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 140,28</t>
+          <t>-50,12; -1,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,75; 359,37</t>
+          <t>-18,67; 78,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 121,31</t>
+          <t>14,42; 74,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,5; 7,58</t>
+          <t>-39,73; -1,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 157,89</t>
+          <t>-14,02; 50,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,81</t>
+          <t>-6,05; 4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 0,08</t>
+          <t>-8,42; 0,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,52</t>
+          <t>-4,41; 7,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,29</t>
+          <t>-6,68; 4,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 2,07</t>
+          <t>-12,19; -1,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,99</t>
+          <t>-6,58; 5,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,31</t>
+          <t>-4,56; 3,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -0,04</t>
+          <t>-8,87; -1,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,68</t>
+          <t>-4,03; 4,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>-34,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>-56,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>-6,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-46,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 67,04</t>
+          <t>-47,52; 54,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 1,51</t>
+          <t>-62,8; 16,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 56,15</t>
+          <t>-35,75; 92,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,23; 143,55</t>
+          <t>-41,46; 51,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 35,47</t>
+          <t>-76,93; -16,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 67,07</t>
+          <t>-43,46; 62,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,41; 75,25</t>
+          <t>-34,98; 39,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 0,37</t>
+          <t>-65,59; -18,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 43,89</t>
+          <t>-28,71; 49,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 5,71</t>
+          <t>0,79; 5,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,31; -2,39</t>
+          <t>-3,9; 0,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 5,33</t>
+          <t>-1,42; 4,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 3,89</t>
+          <t>-0,64; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 1,29</t>
+          <t>-7,14; -2,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 6,96</t>
+          <t>-1,86; 5,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,43</t>
+          <t>0,7; 4,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -1,84</t>
+          <t>-4,8; -1,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,39</t>
+          <t>-0,84; 4,15</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-56,28%</t>
+          <t>-17,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-34,23%</t>
+          <t>-40,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-46,31%</t>
+          <t>-31,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 61,47</t>
+          <t>7,67; 84,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,88; -21,37</t>
+          <t>-40,67; 10,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 58,27</t>
+          <t>-15,93; 61,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 54,64</t>
+          <t>-5,08; 47,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 18,22</t>
+          <t>-54,24; -21,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 87,7</t>
+          <t>-15,06; 56,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 36,98</t>
+          <t>5,87; 48,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,87; -17,62</t>
+          <t>-43,78; -16,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 48,67</t>
+          <t>-8,19; 44,51</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 4,91</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; -2,16</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 4,39</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 6,11</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 0,89</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 3,59</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 4,65</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; -1,33</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 3,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>17,56%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-40,01%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>41,2%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-17,84%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>27,08%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-31,09%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>9,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 47,65</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-54,28; -21,49</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-17,6; 40,43</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 86,92</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-41,7; 12,59</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 51,98</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 52,02</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-43,87; -15,22</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 35,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
